--- a/data/trans_dic/P6901-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>45,27; 69,96</t>
+          <t>45,09; 70,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>50,36; 78,17</t>
+          <t>49,7; 76,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>37,37; 69,15</t>
+          <t>38,42; 70,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,5; 59,91</t>
+          <t>31,24; 61,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>43,8; 73,12</t>
+          <t>45,07; 73,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>43,47; 73,93</t>
+          <t>43,15; 74,45</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>46,29; 75,2</t>
+          <t>45,76; 75,87</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,28; 72,84</t>
+          <t>51,34; 72,52</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>49,56; 68,08</t>
+          <t>48,7; 68,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>52,67; 73,01</t>
+          <t>51,37; 71,81</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>45,35; 68,34</t>
+          <t>47,3; 68,52</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,87; 63,3</t>
+          <t>47,08; 64,19</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,82; 65,69</t>
+          <t>33,99; 66,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>57,07; 88,15</t>
+          <t>56,85; 87,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,98; 89,73</t>
+          <t>58,9; 89,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,41; 71,03</t>
+          <t>40,83; 70,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>70,73; 93,01</t>
+          <t>72,04; 95,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,04; 91,71</t>
+          <t>53,34; 91,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>76,32; 96,96</t>
+          <t>74,36; 96,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>40,42; 68,7</t>
+          <t>40,88; 69,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>56,86; 76,91</t>
+          <t>56,28; 76,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>60,55; 85,48</t>
+          <t>61,6; 85,82</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>72,6; 91,78</t>
+          <t>72,78; 91,72</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>45,58; 65,95</t>
+          <t>45,75; 66,96</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>71,26; 86,88</t>
+          <t>71,5; 87,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>59,48; 80,64</t>
+          <t>60,52; 80,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>56,25; 80,02</t>
+          <t>56,01; 80,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>56,91; 82,34</t>
+          <t>56,29; 81,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>52,84; 93,87</t>
+          <t>54,67; 94,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>76,96; 97,08</t>
+          <t>77,02; 97,14</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>56,1; 100,0</t>
+          <t>55,9; 100,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>60,36; 92,95</t>
+          <t>62,13; 93,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>71,96; 86,7</t>
+          <t>72,15; 86,77</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>67,67; 83,34</t>
+          <t>67,58; 83,5</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>60,15; 81,15</t>
+          <t>58,94; 81,57</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>61,54; 82,17</t>
+          <t>60,94; 81,8</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>74,41; 85,39</t>
+          <t>73,71; 84,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>67,92; 83,72</t>
+          <t>69,05; 84,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71,43; 85,86</t>
+          <t>71,09; 85,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>75,97; 88,99</t>
+          <t>75,54; 88,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>58,42; 83,25</t>
+          <t>58,24; 83,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>70,68; 90,16</t>
+          <t>71,91; 89,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,16; 96,47</t>
+          <t>81,67; 96,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>72,28; 86,08</t>
+          <t>71,38; 86,39</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>73,07; 83,07</t>
+          <t>73,77; 84,15</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,59; 84,39</t>
+          <t>72,19; 83,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>78,14; 88,79</t>
+          <t>78,32; 88,48</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>75,98; 86,04</t>
+          <t>76,82; 86,19</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>72,54; 92,29</t>
+          <t>73,89; 92,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,62; 94,67</t>
+          <t>71,12; 94,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,87; 91,88</t>
+          <t>73,41; 91,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>76,31; 96,09</t>
+          <t>74,32; 96,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>81,91; 95,76</t>
+          <t>80,45; 95,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,16; 92,61</t>
+          <t>66,57; 91,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>80,54; 97,78</t>
+          <t>80,69; 97,73</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,32; 97,91</t>
+          <t>76,24; 97,52</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>80,82; 92,4</t>
+          <t>80,31; 92,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>73,76; 91,14</t>
+          <t>74,55; 91,46</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>78,6; 92,84</t>
+          <t>79,17; 92,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>80,52; 96,42</t>
+          <t>80,3; 95,98</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>70,82; 79,11</t>
+          <t>70,83; 78,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>69,03; 78,99</t>
+          <t>69,29; 79,44</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>69,24; 79,25</t>
+          <t>69,64; 79,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>67,25; 77,6</t>
+          <t>67,51; 77,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>72,29; 83,31</t>
+          <t>71,88; 83,08</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>70,59; 83,34</t>
+          <t>71,79; 83,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>79,3; 89,87</t>
+          <t>79,06; 88,9</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>72,63; 84,03</t>
+          <t>72,58; 84,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>72,44; 79,05</t>
+          <t>72,42; 79,35</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>71,93; 79,27</t>
+          <t>71,98; 79,67</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>75,14; 82,04</t>
+          <t>74,75; 82,01</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>71,64; 79,59</t>
+          <t>71,79; 79,81</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que tiene dolores en la espalda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>37566</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>35801</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>25255</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>21244</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>28128</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>24965</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28655</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>37000</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>65694</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>60766</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>53910</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>58244</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>29343; 45671</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27562; 42238</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>18021; 32915</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>14314; 27983</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>21025; 34267</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>17993; 31048</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>21021; 34851</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>30438; 42995</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>54417; 76888</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>49907; 69770</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>43918; 63618</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>49484; 67464</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21400</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>27572</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>23198</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>28562</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>35490</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>19861</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26571</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23643</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>56890</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>47433</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>49770</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>52204</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14395; 28274</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20659; 31843</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>17808; 27144</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20731; 35696</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>29979; 39599</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>14197; 24331</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>21858; 28496</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>17235; 29223</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>47256; 64454</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>38784; 54026</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>43397; 54692</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>42518; 62231</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>80022</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>56091</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>46000</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>40917</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13055</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>30538</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>8584</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>14342</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>93077</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>86627</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>54585</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>55259</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>71518; 87082</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>48060; 63582</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>37462; 53756</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>32941; 47634</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8905; 15320</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>25971; 32756</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5349; 9569</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>11084; 16624</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>83927; 100931</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>76453; 94459</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>45064; 62369</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>46534; 62466</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>161099</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>89516</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>108514</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>110991</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>35857</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>55678</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>76722</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>84165</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>196956</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>145194</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>185236</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>195156</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>148039; 170276</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>80335; 98317</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>97295; 117078</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>100638; 118465</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>29088; 41680</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>48868; 61065</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>68669; 81353</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>75486; 91364</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>184999; 211028</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>133053; 154444</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>173038; 195496</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>183586; 205976</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>54491</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>34395</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>57827</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>45264</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>59046</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>35622</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>43224</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>116578</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>113537</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>70017</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>101051</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>161841</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>47296; 59269</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>28452; 37914</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>50725; 63050</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>38029; 49328</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>52796; 62775</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>29070; 39913</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>38184; 46252</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>97008; 124087</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>104104; 119915</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>62374; 76524</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>92165; 107420</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>143260; 171244</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>501</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>621</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>354578</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>243376</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>260795</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>246977</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>171575</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>166663</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>183756</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>275728</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>526154</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>410038</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>444551</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>522705</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>334550; 372165</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>226963; 260196</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>243733; 277615</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>229201; 264426</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>158216; 182869</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>153383; 178952</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>171011; 192299</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>255683; 296872</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>501482; 549421</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>389548; 431185</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>423295; 464402</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>496619; 552093</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P6901-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P6901-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
